--- a/ResultadoEleicoesDistritos/SANTARÉM_MAÇÃO.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_MAÇÃO.xlsx
@@ -597,64 +597,64 @@
         <v>1708</v>
       </c>
       <c r="H2" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J2" t="n">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="M2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T2" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>1063</v>
+        <v>1105</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
